--- a/src/test/resources/data_empty.xlsx
+++ b/src/test/resources/data_empty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirek\IdeaProjects\GetDataFromWorkPortals\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39CCC44-E8E9-4650-AC1D-9CCBEE3D9004}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810773BF-6A08-4B50-9653-55CE2EBE0D94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4C8D30A-BB96-4518-832A-65DDBDCBD732}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>TIMESTAMP</t>
   </si>
@@ -69,13 +69,7 @@
     <t>BENEFITY</t>
   </si>
   <si>
-    <t>ZAŘAZENO</t>
-  </si>
-  <si>
     <t>TYP_PRACOVNÍHO_POMĚRU</t>
-  </si>
-  <si>
-    <t>DÉLKA_PRACOVNÍHO_POMĚRU</t>
   </si>
   <si>
     <t>TYP_SMLUVNÍHO_VZTAHU</t>
@@ -434,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B2CFC-478A-4BBD-9936-02EEE9F01803}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,14 +448,12 @@
     <col min="10" max="10" width="49.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="61.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="78.42578125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="43.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="68.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="43.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="68.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,12 +498,6 @@
       </c>
       <c r="O1" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data_empty.xlsx
+++ b/src/test/resources/data_empty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirek\IdeaProjects\GetDataFromWorkPortals\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810773BF-6A08-4B50-9653-55CE2EBE0D94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF5F0BC-78C1-4816-BC71-25C9971D4EEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4C8D30A-BB96-4518-832A-65DDBDCBD732}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>TIMESTAMP</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>ZADAVATEL</t>
+  </si>
+  <si>
+    <t>KONTAKTNÍ_OSOBA</t>
+  </si>
+  <si>
+    <t>KONTAKTNÍ_INFO</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B2CFC-478A-4BBD-9936-02EEE9F01803}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,16 +450,18 @@
     <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="66.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="49.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="61.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="43.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="68.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="66.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="49.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="67.140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="43.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="68.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,24 +487,30 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
     </row>
